--- a/02_incidenza/Grafici distribuzioni ed excel/Distribuzione giornaliera aggregata.xlsx
+++ b/02_incidenza/Grafici distribuzioni ed excel/Distribuzione giornaliera aggregata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Codice-Tesi\02_incidenza\Grafici distribuzioni ed excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A310190-880A-4C82-B35D-44C3CD7DB6CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411FECB4-1C54-491C-86D5-B2DD18F60B83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,62 +1132,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Distribuzione giornaliera aggregata</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1297,115 +1242,6 @@
         <c:axId val="1727282495"/>
         <c:axId val="1520593343"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>days!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>days!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>days!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3822.4285714285716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2814-453F-AB72-F0C921D9737A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1727282495"/>
-        <c:axId val="1520593343"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="1727282495"/>
         <c:scaling>
@@ -1413,6 +1249,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Giorni della settimana</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1478,6 +1369,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Eventi di ictus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1521,37 +1467,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3240,16 +3155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5444</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182337</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134015</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76137</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128573</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76136</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3276,16 +3191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>134013</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76136</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172114</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3312,16 +3227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>536786</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67971</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>202029</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
